--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3496.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3496.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>0.9152823528820205</v>
+        <v>2.523361921310425</v>
       </c>
       <c r="B1">
-        <v>1.771727952626107</v>
+        <v>3.339061975479126</v>
       </c>
       <c r="C1">
-        <v>6.424324939794835</v>
+        <v>2.975239515304565</v>
       </c>
       <c r="D1">
-        <v>3.971850350095921</v>
+        <v>2.508692264556885</v>
       </c>
       <c r="E1">
-        <v>1.719135591792029</v>
+        <v>1.650665760040283</v>
       </c>
     </row>
   </sheetData>
